--- a/adnd-shinwa/checklist.xlsx
+++ b/adnd-shinwa/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/adnd-shinwa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4883964F-48E1-244D-A5B4-5064EC6EEBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B0FDCA9-B806-784E-90AB-28A9ED07C967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{D9A69452-73E0-E249-B34B-07990711C658}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -65,9 +65,6 @@
     <t>rulebook</t>
   </si>
   <si>
-    <t xml:space="preserve">	ダンジョンマスターズガイド</t>
-  </si>
-  <si>
     <t>Dungeon Master's Guide</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Spell Cards V</t>
   </si>
   <si>
-    <t xml:space="preserve">	スペルカードⅥ</t>
-  </si>
-  <si>
     <t>Spell Cards VI</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>supplement</t>
+  </si>
+  <si>
+    <t>ダンジョンマスターズガイド</t>
+  </si>
+  <si>
+    <t>スペルカードⅥ</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,10 +598,10 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -615,19 +615,19 @@
         <v>1991</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -635,19 +635,19 @@
         <v>1990</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -655,19 +655,19 @@
         <v>1990</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -675,19 +675,19 @@
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,19 +695,19 @@
         <v>1990</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -715,19 +715,19 @@
         <v>1990</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -735,19 +735,19 @@
         <v>1990</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -755,19 +755,19 @@
         <v>1991</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -775,19 +775,19 @@
         <v>1991</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -795,19 +795,19 @@
         <v>1991</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -815,19 +815,19 @@
         <v>1991</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
